--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bablove/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mr.chiragbhisikar/Desktop/DSA---365-Day-Of-Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A296DB3B-D750-F440-AE8C-C019300B98C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEAD0CE4-7610-E942-A746-DBB434F1CEFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="940" windowWidth="27640" windowHeight="16200" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14340" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="466">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1426,6 +1426,9 @@
   </si>
   <si>
     <t xml:space="preserve">Youtube Channel: https://www.youtube.com/channel/UCQHLxxBFrbfdrk1jF0moTpw </t>
+  </si>
+  <si>
+    <t>Done</t>
   </si>
 </sst>
 </file>
@@ -1857,8 +1860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A464" workbookViewId="0">
+      <selection activeCell="B472" sqref="B472"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1891,7 +1894,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="C5" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="21">
@@ -1902,7 +1905,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="21">
@@ -1913,7 +1916,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="21">
@@ -1924,7 +1927,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="21">
@@ -6826,7 +6829,7 @@
         <v>454</v>
       </c>
       <c r="C472" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="473" spans="1:3" ht="21">
@@ -6848,7 +6851,7 @@
         <v>456</v>
       </c>
       <c r="C474" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="475" spans="1:3" ht="21">
@@ -7370,12 +7373,12 @@
     <hyperlink ref="B475" r:id="rId438" xr:uid="{27A13A65-56CE-BF4D-BA0D-EB87D910272D}"/>
     <hyperlink ref="B476" r:id="rId439" xr:uid="{2C72A52E-6F06-0246-AEB5-93CD0DEA8866}"/>
     <hyperlink ref="B477" r:id="rId440" xr:uid="{24B29046-B4DD-674B-9EDF-6C94BEC3FDD8}"/>
-    <hyperlink ref="B478" r:id="rId441" xr:uid="{D018EBC3-3FB3-AC4D-9D64-D218345A46C8}"/>
-    <hyperlink ref="B481" r:id="rId442" xr:uid="{1E1D3964-01E0-3145-ACFE-B6A5BF0EECB0}"/>
-    <hyperlink ref="B479" r:id="rId443" xr:uid="{FA0E5061-A7E2-C045-9671-1CD9446D1932}"/>
-    <hyperlink ref="B480" r:id="rId444" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{92704F5B-7B31-2F42-80DD-764B2206D9DB}"/>
-    <hyperlink ref="B356" r:id="rId445" xr:uid="{A48B1A24-83B1-7A4C-8129-CD37804DF849}"/>
-    <hyperlink ref="B2" r:id="rId446" xr:uid="{E07D4FE5-46C7-AC4D-9E01-2300AA43B58A}"/>
+    <hyperlink ref="B481" r:id="rId441" xr:uid="{1E1D3964-01E0-3145-ACFE-B6A5BF0EECB0}"/>
+    <hyperlink ref="B479" r:id="rId442" xr:uid="{FA0E5061-A7E2-C045-9671-1CD9446D1932}"/>
+    <hyperlink ref="B480" r:id="rId443" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{92704F5B-7B31-2F42-80DD-764B2206D9DB}"/>
+    <hyperlink ref="B356" r:id="rId444" xr:uid="{A48B1A24-83B1-7A4C-8129-CD37804DF849}"/>
+    <hyperlink ref="B2" r:id="rId445" xr:uid="{E07D4FE5-46C7-AC4D-9E01-2300AA43B58A}"/>
+    <hyperlink ref="B478" r:id="rId446" xr:uid="{D018EBC3-3FB3-AC4D-9D64-D218345A46C8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
